--- a/output/Peru_aggregated.xlsx
+++ b/output/Peru_aggregated.xlsx
@@ -20,13 +20,43 @@
     <t xml:space="preserve">amountUSD</t>
   </si>
   <si>
+    <t xml:space="preserve">United States of America, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Emergency Response Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Fund for UNICEF</t>
+  </si>
+  <si>
     <t xml:space="preserve">European Commission's Humanitarian Aid and Civil Protection Department</t>
   </si>
   <si>
-    <t xml:space="preserve">Canada, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany, Government of</t>
+    <t xml:space="preserve">Education Cannot Wait Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Nations Population Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland, Government of</t>
   </si>
   <si>
     <t xml:space="preserve">Argentina, Government of</t>
@@ -35,12 +65,6 @@
     <t xml:space="preserve">Paraguay, Government of</t>
   </si>
   <si>
-    <t xml:space="preserve">Sweden, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland, Government of</t>
-  </si>
-  <si>
     <t xml:space="preserve">Venezuela, Government of</t>
   </si>
   <si>
@@ -62,34 +86,10 @@
     <t xml:space="preserve">European Commission Civil Protection Mechanism</t>
   </si>
   <si>
-    <t xml:space="preserve">United States of America, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Emergency Response Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Nations Population Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Fund for UNICEF</t>
-  </si>
-  <si>
     <t xml:space="preserve">Korea, Republic of, Government of</t>
   </si>
   <si>
-    <t xml:space="preserve">United Arab Emirates, Government of</t>
-  </si>
-  <si>
     <t xml:space="preserve">Qatar, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education Cannot Wait Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain, Government of</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>4047077</v>
+        <v>14049432</v>
       </c>
     </row>
     <row r="3">
@@ -442,7 +442,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>735864</v>
+        <v>3003000</v>
       </c>
     </row>
     <row r="4">
@@ -458,7 +458,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>735864</v>
       </c>
     </row>
     <row r="6">
@@ -466,7 +466,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>921037</v>
       </c>
     </row>
     <row r="7">
@@ -474,7 +474,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>921037</v>
+        <v>5167962</v>
       </c>
     </row>
     <row r="8">
@@ -482,7 +482,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>730124</v>
+        <v>139607</v>
       </c>
     </row>
     <row r="9">
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>4047077</v>
       </c>
     </row>
     <row r="10">
@@ -498,7 +498,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="11">
@@ -506,7 +506,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>21277</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="13">
@@ -522,7 +522,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>313589</v>
       </c>
     </row>
     <row r="14">
@@ -530,7 +530,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>730124</v>
       </c>
     </row>
     <row r="15">
@@ -546,7 +546,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>14049432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -554,7 +554,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>5167962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -570,7 +570,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>139607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -578,7 +578,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -586,7 +586,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>3003000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -594,7 +594,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -602,7 +602,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -610,7 +610,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>21277</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="25">
@@ -618,7 +618,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>313589</v>
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
